--- a/data/hobo/hobo_events.xlsx
+++ b/data/hobo/hobo_events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karyan\OneDrive - DOI\2 ANALYSIS\Prerana Bhaumik\Prerana\first_repo\data\hobo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\R\first_repo\data\hobo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB807443-E747-4477-96D6-DE5F0A3955DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC472A65-CDCB-4A7A-9ADA-902EA8FEBC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{440D8B63-3FC7-439E-9936-27AAC05CA601}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{440D8B63-3FC7-439E-9936-27AAC05CA601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -70,7 +68,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -115,11 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,23 +433,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DE5FBD-E42E-40E6-984D-C66BDBD21AB6}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="37.88671875" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -470,193 +467,242 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>43307</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.4375</v>
+      <c r="C2" s="4">
+        <v>43307.4375</v>
       </c>
       <c r="D2" s="1">
         <v>43307</v>
       </c>
-      <c r="E2" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="4">
+        <v>43307.645833333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>43346</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.75</v>
+      <c r="C3" s="4">
+        <v>43346.75</v>
       </c>
       <c r="D3" s="1">
         <v>43347</v>
       </c>
-      <c r="E3" s="3">
-        <v>0.5</v>
+      <c r="E3" s="4">
+        <v>43347.5</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>43354</v>
       </c>
-      <c r="C4" s="3">
-        <v>4.1666666666666664E-2</v>
+      <c r="C4" s="4">
+        <v>43354.041666666664</v>
       </c>
       <c r="D4" s="1">
         <v>43354</v>
       </c>
-      <c r="E4" s="3">
-        <v>0.54166666666666663</v>
+      <c r="E4" s="4">
+        <v>43354.541666666664</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>43364</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.25</v>
+      <c r="C5" s="4">
+        <v>43364.25</v>
       </c>
       <c r="D5" s="1">
         <v>43366</v>
       </c>
-      <c r="E5" s="3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>43366.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>43368</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.41666666666666669</v>
+      <c r="C6" s="4">
+        <v>43368.416666666664</v>
       </c>
       <c r="D6" s="1">
         <v>43370</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
+      <c r="E6" s="4">
+        <v>43370</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>43375</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
+      <c r="C7" s="4">
+        <v>43375</v>
       </c>
       <c r="D7" s="1">
         <v>43376</v>
       </c>
-      <c r="E7" s="3">
-        <v>0.58333333333333337</v>
+      <c r="E7" s="4">
+        <v>43376.583333333336</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>43384</v>
       </c>
-      <c r="C8" s="3">
-        <v>0.20833333333333334</v>
+      <c r="C8" s="4">
+        <v>43384.208333333336</v>
       </c>
       <c r="D8" s="1">
         <v>43385</v>
       </c>
-      <c r="E8" s="3">
-        <v>8.3333333333333329E-2</v>
+      <c r="E8" s="4">
+        <v>43385.083333333336</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>43405</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.5</v>
+      <c r="C9" s="4">
+        <v>43405.5</v>
       </c>
       <c r="D9" s="1">
         <v>43406</v>
       </c>
-      <c r="E9" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="4">
+        <v>43406.541666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>43406</v>
       </c>
-      <c r="C10" s="3">
-        <v>0.91666666666666663</v>
+      <c r="C10" s="4">
+        <v>43406.916666666664</v>
       </c>
       <c r="D10" s="1">
         <v>43407</v>
       </c>
-      <c r="E10" s="3">
-        <v>0.91666666666666663</v>
+      <c r="E10" s="4">
+        <v>43407.916666666664</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
